--- a/untranslated/downloads/data-excel/1.3.1.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,20 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +375,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -429,15 +443,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Normal 17" xfId="3"/>
@@ -8116,7 +8138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8126,7 +8148,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39" customHeight="1">
+    <row r="1" spans="1:17" ht="39" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -8150,7 +8172,7 @@
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -8167,8 +8189,9 @@
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
+      <c r="Q2" s="31"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8217,58 +8240,64 @@
       <c r="P3" s="5">
         <v>2019</v>
       </c>
+      <c r="Q3" s="5">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:17" s="30" customFormat="1" ht="27" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="27">
         <v>19.5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="27">
         <v>18.5</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="27">
         <v>19</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="27">
         <v>18.5</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="27">
         <v>17.899999999999999</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="27">
         <v>17.3</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="27">
         <v>17.100000000000001</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N4" s="27">
         <v>16.8</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="27">
         <v>17.100000000000001</v>
       </c>
+      <c r="Q4" s="27">
+        <v>17.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1">
+    <row r="5" spans="1:17" s="2" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
@@ -8278,47 +8307,50 @@
       <c r="C5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>2.1096641966321523</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>1.9341284624302637</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1.9238296163957849</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>1.8744443597520182</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>1.9300353073049976</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>1.8456244074087951</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>1.795079086724475</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>1.7624072486430169</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>1.6590967990590548</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>1.4955864629816618</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>1.4843056996226462</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <v>1.5255027779951482</v>
       </c>
       <c r="P5" s="22">
         <v>1.6</v>
       </c>
+      <c r="Q5" s="25">
+        <v>1.7006983633535606</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
@@ -8328,47 +8360,50 @@
       <c r="C6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>4.6168460990954854</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>4.1930127860449318</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>4.116810027908965</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>4.0912470869547803</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>4.2797601878187974</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>4.1355301115584462</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>4.1012226978985797</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>3.9513070430811412</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>3.8641377660528815</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>3.7465229145630432</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>3.7927160034075307</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <v>3.8041161280225366</v>
       </c>
       <c r="P6" s="23">
         <v>3.9</v>
       </c>
+      <c r="Q6" s="28">
+        <v>4.0792532187560786</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -8378,47 +8413,50 @@
       <c r="C7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>1.5049265707046984</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>1.3931396860472767</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>1.3906186571064743</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>1.4328297497055811</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>1.4968909855010022</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>1.4607283144040371</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>1.4106814251363697</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>1.3973389932116065</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>1.3666130629223787</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>1.3914367610175564</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>1.4002362256322392</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>1.3904687377729086</v>
       </c>
       <c r="P7" s="23">
         <v>1.5</v>
       </c>
+      <c r="Q7" s="28">
+        <v>1.4965639329659175</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
@@ -8428,47 +8466,50 @@
       <c r="C8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>1.6713656715066891</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1.4572135996267115</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1.4235679057535877</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>1.5035715083276135</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>1.5750636225221901</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>1.5301101174951657</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>1.4306933006957416</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>1.366601403004752</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>1.3420428342647537</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>1.2849255724569233</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>1.2882927663491952</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>1.2321464903357071</v>
       </c>
       <c r="P8" s="23">
         <v>1.2</v>
       </c>
+      <c r="Q8" s="28">
+        <v>1.2345401844834025</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
@@ -8478,47 +8519,50 @@
       <c r="C9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>4.9401579589771636</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>4.6938442911258482</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>4.7783682868236754</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>4.7009956445740633</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>4.7156429252120446</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>4.5065570487012705</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>4.2960441923148167</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>4.0138678778950929</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>4.015778771588244</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="25">
         <v>3.7885248037523209</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>3.868010925835061</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="25">
         <v>3.6392988496752485</v>
       </c>
       <c r="P9" s="23">
         <v>3.8</v>
       </c>
+      <c r="Q9" s="28">
+        <v>3.9182419607753913</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -8528,47 +8572,50 @@
       <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>0.7305102461808477</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>0.84303800723133393</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>0.81632835725712316</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>0.78415753726400106</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>0.82550450743205994</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>0.80695071658506079</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>0.78406389951130162</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>0.77217169217219428</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="25">
         <v>0.79566673533262</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <v>0.82318165532067367</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>0.85822786024009357</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <v>0.83364895531731742</v>
       </c>
       <c r="P10" s="23">
         <v>0.9</v>
       </c>
+      <c r="Q10" s="28">
+        <v>0.84723021008759791</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -8578,47 +8625,50 @@
       <c r="C11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>1.9582987538029544</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>1.9942509307638732</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>1.939437155228628</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>1.9224852670552142</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>1.9498614361711839</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>1.9698884415535758</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>1.9161543961208813</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>1.9023209594742174</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>1.9056961730913633</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>1.9155564965310579</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>1.9093200441764306</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="25">
         <v>1.9317004460442915</v>
       </c>
       <c r="P11" s="23">
         <v>1.9</v>
       </c>
+      <c r="Q11" s="28">
+        <v>2.085763280904978</v>
+      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -8628,47 +8678,50 @@
       <c r="C12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>1.5098240803115348</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>1.7903828250905049</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>1.7625517151230712</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>1.7552741183164677</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>1.7616410046699111</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>1.7988115034020857</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>1.7537742985889548</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>1.7410503909882542</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <v>1.7360137420508084</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <v>1.7429888277254815</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>1.766737576977111</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="25">
         <v>1.7700602551060332</v>
       </c>
       <c r="P12" s="23">
         <v>1.8</v>
       </c>
+      <c r="Q12" s="28">
+        <v>1.8003095767645958</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
       <c r="A13" s="24" t="s">
         <v>26</v>
       </c>
@@ -8678,47 +8731,50 @@
       <c r="C13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="26">
         <v>0.49289527619000434</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>0.48253007446867241</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>0.4636762970340268</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="26">
         <v>0.47365418556635575</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>0.47060584706496617</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>0.4608522362122579</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="26">
         <v>0.45402375458100569</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="26">
         <v>0.45231076450086533</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="26">
         <v>0.45279658708061166</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <v>0.44576723885215469</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>0.44659111069200685</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="26">
         <v>0.45538774551999373</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="26">
         <v>0.5</v>
       </c>
+      <c r="Q13" s="26">
+        <v>0.49216467627561039</v>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
@@ -8736,7 +8792,7 @@
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
@@ -8754,7 +8810,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>

--- a/untranslated/downloads/data-excel/1.3.1.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.xlsx
@@ -375,7 +375,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Normal 17" xfId="3"/>
@@ -8138,9 +8141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:R25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8148,7 +8153,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1">
+    <row r="1" spans="1:18" ht="39" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -8172,7 +8177,7 @@
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -8190,8 +8195,9 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8243,8 +8249,11 @@
       <c r="Q3" s="5">
         <v>2020</v>
       </c>
+      <c r="R3" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" s="30" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:18" s="30" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
@@ -8296,8 +8305,11 @@
       <c r="Q4" s="27">
         <v>17.7</v>
       </c>
+      <c r="R4" s="32">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1">
+    <row r="5" spans="1:18" s="2" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
@@ -8349,8 +8361,11 @@
       <c r="Q5" s="25">
         <v>1.7006983633535606</v>
       </c>
+      <c r="R5" s="25">
+        <v>1.7480265877296817</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
@@ -8402,8 +8417,11 @@
       <c r="Q6" s="28">
         <v>4.0792532187560786</v>
       </c>
+      <c r="R6" s="25">
+        <v>4.1112601249414027</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -8455,8 +8473,11 @@
       <c r="Q7" s="28">
         <v>1.4965639329659175</v>
       </c>
+      <c r="R7" s="25">
+        <v>1.5225742120245318</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
@@ -8508,8 +8529,11 @@
       <c r="Q8" s="28">
         <v>1.2345401844834025</v>
       </c>
+      <c r="R8" s="25">
+        <v>1.2326518235454269</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
@@ -8561,8 +8585,11 @@
       <c r="Q9" s="28">
         <v>3.9182419607753913</v>
       </c>
+      <c r="R9" s="25">
+        <v>4.0865392096984241</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -8614,8 +8641,11 @@
       <c r="Q10" s="28">
         <v>0.84723021008759791</v>
       </c>
+      <c r="R10" s="25">
+        <v>0.84876624403485645</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -8667,8 +8697,11 @@
       <c r="Q11" s="28">
         <v>2.085763280904978</v>
       </c>
+      <c r="R11" s="25">
+        <v>2.1456657699653627</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -8720,8 +8753,11 @@
       <c r="Q12" s="28">
         <v>1.8003095767645958</v>
       </c>
+      <c r="R12" s="25">
+        <v>1.8214779402142154</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
       <c r="A13" s="24" t="s">
         <v>26</v>
       </c>
@@ -8773,8 +8809,11 @@
       <c r="Q13" s="26">
         <v>0.49216467627561039</v>
       </c>
+      <c r="R13" s="26">
+        <v>0.51989507542472779</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
@@ -8792,7 +8831,7 @@
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
@@ -8810,7 +8849,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>

--- a/untranslated/downloads/data-excel/1.3.1.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.xlsx
@@ -375,7 +375,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -461,6 +461,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8141,11 +8144,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:R25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8153,7 +8154,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1">
+    <row r="1" spans="1:19" ht="39" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -8177,7 +8178,7 @@
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -8196,8 +8197,9 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8252,8 +8254,11 @@
       <c r="R3" s="5">
         <v>2021</v>
       </c>
+      <c r="S3" s="5">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" s="30" customFormat="1" ht="27" customHeight="1">
+    <row r="4" spans="1:19" s="30" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
@@ -8308,8 +8313,11 @@
       <c r="R4" s="32">
         <v>18</v>
       </c>
+      <c r="S4" s="33">
+        <v>17.700522048199787</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1">
+    <row r="5" spans="1:19" s="2" customFormat="1">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
@@ -8364,8 +8372,11 @@
       <c r="R5" s="25">
         <v>1.7480265877296817</v>
       </c>
+      <c r="S5" s="25">
+        <v>1.7610202290451711</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
@@ -8420,8 +8431,11 @@
       <c r="R6" s="25">
         <v>4.1112601249414027</v>
       </c>
+      <c r="S6" s="25">
+        <v>3.9589300291403076</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
@@ -8476,8 +8490,11 @@
       <c r="R7" s="25">
         <v>1.5225742120245318</v>
       </c>
+      <c r="S7" s="25">
+        <v>1.4859750619980623</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
@@ -8532,8 +8549,11 @@
       <c r="R8" s="25">
         <v>1.2326518235454269</v>
       </c>
+      <c r="S8" s="25">
+        <v>1.1943569362276563</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
@@ -8588,8 +8608,11 @@
       <c r="R9" s="25">
         <v>4.0865392096984241</v>
       </c>
+      <c r="S9" s="25">
+        <v>3.9154905266043296</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -8644,8 +8667,11 @@
       <c r="R10" s="25">
         <v>0.84876624403485645</v>
       </c>
+      <c r="S10" s="25">
+        <v>0.84000241999604885</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
@@ -8700,8 +8726,11 @@
       <c r="R11" s="25">
         <v>2.1456657699653627</v>
       </c>
+      <c r="S11" s="25">
+        <v>2.1393883316621789</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
@@ -8756,8 +8785,11 @@
       <c r="R12" s="25">
         <v>1.8214779402142154</v>
       </c>
+      <c r="S12" s="25">
+        <v>1.8762854436950933</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="24" t="s">
         <v>26</v>
       </c>
@@ -8812,8 +8844,11 @@
       <c r="R13" s="26">
         <v>0.51989507542472779</v>
       </c>
+      <c r="S13" s="26">
+        <v>0.52907306983093583</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" s="9"/>
       <c r="B14" s="12"/>
       <c r="C14" s="10"/>
@@ -8831,7 +8866,7 @@
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
@@ -8849,7 +8884,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>

--- a/untranslated/downloads/data-excel/1.3.1.xlsx
+++ b/untranslated/downloads/data-excel/1.3.1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Osh city</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +384,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -465,6 +474,9 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -8144,17 +8156,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="39.28515625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="33.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="39" customHeight="1">
+    <row r="1" spans="1:20" ht="45.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -8178,713 +8190,753 @@
       <c r="O1" s="22"/>
       <c r="P1" s="23"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+    <row r="2" spans="1:20" s="2" customFormat="1">
+      <c r="A2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>2007</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="5">
         <v>2008</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>2009</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>2010</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="5">
         <v>2011</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="5">
         <v>2012</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>2013</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="5">
         <v>2014</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="5">
         <v>2015</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M4" s="5">
         <v>2016</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N4" s="5">
         <v>2017</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O4" s="5">
         <v>2018</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P4" s="5">
         <v>2019</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q4" s="5">
         <v>2020</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R4" s="5">
         <v>2021</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S4" s="5">
         <v>2022</v>
       </c>
+      <c r="T4" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" ht="27" customHeight="1">
-      <c r="A4" s="29" t="s">
+    <row r="5" spans="1:20" s="30" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D5" s="27">
         <v>19.5</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E5" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F5" s="27">
         <v>18.600000000000001</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G5" s="27">
         <v>18.5</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H5" s="27">
         <v>19</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I5" s="27">
         <v>18.5</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J5" s="27">
         <v>17.899999999999999</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K5" s="27">
         <v>17.3</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L5" s="27">
         <v>17.100000000000001</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M5" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N5" s="27">
         <v>16.8</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O5" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P5" s="27">
         <v>17.100000000000001</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q5" s="27">
         <v>17.7</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R5" s="32">
         <v>18</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S5" s="33">
         <v>17.700522048199787</v>
       </c>
+      <c r="T5" s="33">
+        <v>16.899999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1">
-      <c r="A5" s="22" t="s">
+    <row r="6" spans="1:20" s="2" customFormat="1">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D6" s="25">
         <v>2.1096641966321523</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="25">
         <v>1.9341284624302637</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F6" s="25">
         <v>1.9238296163957849</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G6" s="25">
         <v>1.8744443597520182</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H6" s="25">
         <v>1.9300353073049976</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I6" s="25">
         <v>1.8456244074087951</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J6" s="25">
         <v>1.795079086724475</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K6" s="25">
         <v>1.7624072486430169</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L6" s="25">
         <v>1.6590967990590548</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M6" s="25">
         <v>1.4955864629816618</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N6" s="25">
         <v>1.4843056996226462</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O6" s="25">
         <v>1.5255027779951482</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P6" s="22">
         <v>1.6</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q6" s="25">
         <v>1.7006983633535606</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R6" s="25">
         <v>1.7480265877296817</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S6" s="25">
         <v>1.7610202290451711</v>
       </c>
+      <c r="T6" s="25">
+        <v>1.6414476026646523</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="22" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D7" s="25">
         <v>4.6168460990954854</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E7" s="25">
         <v>4.1930127860449318</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F7" s="25">
         <v>4.116810027908965</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G7" s="25">
         <v>4.0912470869547803</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H7" s="25">
         <v>4.2797601878187974</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I7" s="25">
         <v>4.1355301115584462</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J7" s="25">
         <v>4.1012226978985797</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K7" s="25">
         <v>3.9513070430811412</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L7" s="25">
         <v>3.8641377660528815</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M7" s="25">
         <v>3.7465229145630432</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N7" s="25">
         <v>3.7927160034075307</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O7" s="25">
         <v>3.8041161280225366</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P7" s="23">
         <v>3.9</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q7" s="28">
         <v>4.0792532187560786</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R7" s="25">
         <v>4.1112601249414027</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S7" s="25">
         <v>3.9589300291403076</v>
       </c>
+      <c r="T7" s="25">
+        <v>3.7332918174062506</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="22" t="s">
+    <row r="8" spans="1:20">
+      <c r="A8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D8" s="25">
         <v>1.5049265707046984</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E8" s="25">
         <v>1.3931396860472767</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F8" s="25">
         <v>1.3906186571064743</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G8" s="25">
         <v>1.4328297497055811</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H8" s="25">
         <v>1.4968909855010022</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I8" s="25">
         <v>1.4607283144040371</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J8" s="25">
         <v>1.4106814251363697</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K8" s="25">
         <v>1.3973389932116065</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L8" s="25">
         <v>1.3666130629223787</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M8" s="25">
         <v>1.3914367610175564</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N8" s="25">
         <v>1.4002362256322392</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O8" s="25">
         <v>1.3904687377729086</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P8" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q8" s="28">
         <v>1.4965639329659175</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R8" s="25">
         <v>1.5225742120245318</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S8" s="25">
         <v>1.4859750619980623</v>
       </c>
+      <c r="T8" s="25">
+        <v>1.4142735666882158</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="22" t="s">
+    <row r="9" spans="1:20">
+      <c r="A9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D9" s="25">
         <v>1.6713656715066891</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E9" s="25">
         <v>1.4572135996267115</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F9" s="25">
         <v>1.4235679057535877</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G9" s="25">
         <v>1.5035715083276135</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H9" s="25">
         <v>1.5750636225221901</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I9" s="25">
         <v>1.5301101174951657</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J9" s="25">
         <v>1.4306933006957416</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K9" s="25">
         <v>1.366601403004752</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L9" s="25">
         <v>1.3420428342647537</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M9" s="25">
         <v>1.2849255724569233</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N9" s="25">
         <v>1.2882927663491952</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O9" s="25">
         <v>1.2321464903357071</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P9" s="23">
         <v>1.2</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q9" s="28">
         <v>1.2345401844834025</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R9" s="25">
         <v>1.2326518235454269</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S9" s="25">
         <v>1.1943569362276563</v>
       </c>
+      <c r="T9" s="25">
+        <v>1.1221168654730374</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="22" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D10" s="25">
         <v>4.9401579589771636</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E10" s="25">
         <v>4.6938442911258482</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F10" s="25">
         <v>4.7783682868236754</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G10" s="25">
         <v>4.7009956445740633</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H10" s="25">
         <v>4.7156429252120446</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I10" s="25">
         <v>4.5065570487012705</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J10" s="25">
         <v>4.2960441923148167</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K10" s="25">
         <v>4.0138678778950929</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L10" s="25">
         <v>4.015778771588244</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M10" s="25">
         <v>3.7885248037523209</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N10" s="25">
         <v>3.868010925835061</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O10" s="25">
         <v>3.6392988496752485</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P10" s="23">
         <v>3.8</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q10" s="28">
         <v>3.9182419607753913</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R10" s="25">
         <v>4.0865392096984241</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S10" s="25">
         <v>3.9154905266043296</v>
       </c>
+      <c r="T10" s="25">
+        <v>3.7365451394949116</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="22" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D11" s="25">
         <v>0.7305102461808477</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E11" s="25">
         <v>0.84303800723133393</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F11" s="25">
         <v>0.81632835725712316</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G11" s="25">
         <v>0.78415753726400106</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <v>0.82550450743205994</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="25">
         <v>0.80695071658506079</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J11" s="25">
         <v>0.78406389951130162</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K11" s="25">
         <v>0.77217169217219428</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L11" s="25">
         <v>0.79566673533262</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M11" s="25">
         <v>0.82318165532067367</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N11" s="25">
         <v>0.85822786024009357</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O11" s="25">
         <v>0.83364895531731742</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P11" s="23">
         <v>0.9</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q11" s="28">
         <v>0.84723021008759791</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R11" s="25">
         <v>0.84876624403485645</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S11" s="25">
         <v>0.84000241999604885</v>
       </c>
+      <c r="T11" s="25">
+        <v>0.78756923781505217</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="22" t="s">
+    <row r="12" spans="1:20">
+      <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <v>1.9582987538029544</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E12" s="25">
         <v>1.9942509307638732</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F12" s="25">
         <v>1.939437155228628</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G12" s="25">
         <v>1.9224852670552142</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H12" s="25">
         <v>1.9498614361711839</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I12" s="25">
         <v>1.9698884415535758</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J12" s="25">
         <v>1.9161543961208813</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K12" s="25">
         <v>1.9023209594742174</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L12" s="25">
         <v>1.9056961730913633</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M12" s="25">
         <v>1.9155564965310579</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N12" s="25">
         <v>1.9093200441764306</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O12" s="25">
         <v>1.9317004460442915</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P12" s="23">
         <v>1.9</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q12" s="28">
         <v>2.085763280904978</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R12" s="25">
         <v>2.1456657699653627</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S12" s="25">
         <v>2.1393883316621789</v>
       </c>
+      <c r="T12" s="25">
+        <v>2.0683169713107259</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:20">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D13" s="25">
         <v>1.5098240803115348</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E13" s="25">
         <v>1.7903828250905049</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F13" s="25">
         <v>1.7625517151230712</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G13" s="25">
         <v>1.7552741183164677</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H13" s="25">
         <v>1.7616410046699111</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I13" s="25">
         <v>1.7988115034020857</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J13" s="25">
         <v>1.7537742985889548</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K13" s="25">
         <v>1.7410503909882542</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L13" s="25">
         <v>1.7360137420508084</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M13" s="25">
         <v>1.7429888277254815</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N13" s="25">
         <v>1.766737576977111</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O13" s="25">
         <v>1.7700602551060332</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P13" s="23">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q13" s="28">
         <v>1.8003095767645958</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R13" s="25">
         <v>1.8214779402142154</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S13" s="25">
         <v>1.8762854436950933</v>
       </c>
+      <c r="T13" s="25">
+        <v>1.8858656419865651</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A13" s="24" t="s">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D14" s="26">
         <v>0.49289527619000434</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E14" s="26">
         <v>0.48253007446867241</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F14" s="26">
         <v>0.4636762970340268</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G14" s="26">
         <v>0.47365418556635575</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H14" s="26">
         <v>0.47060584706496617</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I14" s="26">
         <v>0.4608522362122579</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J14" s="26">
         <v>0.45402375458100569</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K14" s="26">
         <v>0.45231076450086533</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L14" s="26">
         <v>0.45279658708061166</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M14" s="26">
         <v>0.44576723885215469</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N14" s="26">
         <v>0.44659111069200685</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O14" s="26">
         <v>0.45538774551999373</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P14" s="26">
         <v>0.5</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q14" s="26">
         <v>0.49216467627561039</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R14" s="26">
         <v>0.51989507542472779</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S14" s="26">
         <v>0.52907306983093583</v>
       </c>
+      <c r="T14" s="26">
+        <v>0.49710203004505782</v>
+      </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="9"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="9"/>
       <c r="B16" s="12"/>
       <c r="C16" s="10"/>
@@ -8905,7 +8957,7 @@
     <row r="17" spans="1:16">
       <c r="A17" s="9"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="13"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -8921,10 +8973,10 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="15"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -8939,10 +8991,10 @@
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -8957,9 +9009,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="12"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="13"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -8975,10 +9027,10 @@
       <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -8993,10 +9045,28 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
